--- a/Yr2/Sem2/BD/requisitos.xlsx
+++ b/Yr2/Sem2/BD/requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\stuff\2º Ano\2º Semestre\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\stuff\Yr2\Sem2\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EFB2F0-57EB-4BE8-997D-89CAA0FF2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD801F-126C-422F-94E5-D32D8E51AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="7200" windowWidth="21600" windowHeight="11505" xr2:uid="{4F4F67C9-A4E4-451C-B4F2-DF90DFDE976D}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" xr2:uid="{4F4F67C9-A4E4-451C-B4F2-DF90DFDE976D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
